--- a/labnote/001_oligo_assembly_test_GFP-mCherry/resources/primers_order/primer_stock/yerin_primers_1.xlsx
+++ b/labnote/001_oligo_assembly_test_GFP-mCherry/resources/primers_order/primer_stock/yerin_primers_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\workspace\labnote\labnote\oligo_assembly_SOP\001_oligo_assembly_test_GFP-mCherry\resources\primers_order\primer_stock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\workspace\labnote\labnote\oligo_assembly_SOP\labnote\001_oligo_assembly_test_GFP-mCherry\resources\primers_order\primer_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52E8966-21C7-4D5D-9C00-38A97DF10835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC45D3BB-DE56-4D5C-82AB-5CCCA3255D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16020" yWindow="1757" windowWidth="16483" windowHeight="15617" xr2:uid="{458C069F-FE44-4A2B-8C7D-1324AC8CA1D6}"/>
+    <workbookView xWindow="57075" yWindow="12000" windowWidth="16335" windowHeight="13980" xr2:uid="{458C069F-FE44-4A2B-8C7D-1324AC8CA1D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>A1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,57 +72,6 @@
     <t>A8</t>
   </si>
   <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>B1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,6 +121,10 @@
   </si>
   <si>
     <t>Tm (ºC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pRSF vector 증폭용 primer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F705ECDA-65CB-4293-BEF3-7C26D5D079C6}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -586,24 +539,24 @@
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -611,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>59.6</v>
@@ -625,10 +578,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>58.9</v>
@@ -639,13 +592,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1">
         <v>57.4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -653,13 +609,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>59.1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -680,86 +639,6 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
